--- a/data/trans_camb/IP16B05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B05-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 0,0</t>
+          <t>-24,98; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,09</t>
+          <t>0,0; 36,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,01</t>
+          <t>0,0; 33,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 19,28</t>
+          <t>-4,49; 17,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,67</t>
+          <t>0,0; 19,63</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 0,0</t>
+          <t>-24,98; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,73</t>
+          <t>0,0; 56,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,75</t>
+          <t>0,0; 51,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 23,83</t>
+          <t>-4,51; 20,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,11</t>
+          <t>0,0; 24,42</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 0,0</t>
+          <t>-15,41; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,55</t>
+          <t>0,0; 25,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,67</t>
+          <t>0,0; 35,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 10,32</t>
+          <t>-2,88; 9,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,04</t>
+          <t>0,0; 12,65</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 0,0</t>
+          <t>-15,41; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,8</t>
+          <t>0,0; 33,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,2</t>
+          <t>0,0; 55,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 11,46</t>
+          <t>-2,88; 10,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,7</t>
+          <t>0,0; 14,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B05-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,19</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8,19</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-4,99</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,19</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 0,0</t>
+          <t>0,0; 41,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 41,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,04</t>
+          <t>-26,49; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 17,13</t>
+          <t>-4,42; 15,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,63</t>
+          <t>0,0; 19,7</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8,93%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8,93%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-4,99%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,93%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 0,0</t>
+          <t>0,0; 71,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 71,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,69</t>
+          <t>-26,49; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 20,75</t>
+          <t>-4,44; 18,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,42</t>
+          <t>0,0; 24,53</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,75</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5,75</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-3,29</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,75</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 0,0</t>
+          <t>0,0; 24,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 28,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,19</t>
+          <t>-17,1; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 9,46</t>
+          <t>-2,85; 9,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,65</t>
+          <t>0,0; 12,54</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-3,29%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>6,1%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 0,0</t>
+          <t>0,0; 33,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 39,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,72</t>
+          <t>-17,1; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 10,29</t>
+          <t>-2,85; 11,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,48</t>
+          <t>0,0; 14,34</t>
         </is>
       </c>
     </row>
